--- a/03/data.xlsx
+++ b/03/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 5\4. Regresi Spasial\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07DC291-A695-4B3E-8129-B5F9D6BE88E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF0FDE-7AE8-4F65-83CB-456F66D94294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
